--- a/cv32e40p/docs/VerifPlans/Simulation/interrupts/CV32E40Pv2_interrupts.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/interrupts/CV32E40Pv2_interrupts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\interrupts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F69483-9613-4BB7-9BCF-E34136F72368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E3765C-881F-4B59-A89D-E40D8E9E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3020,10 +3020,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,6 +6466,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -6696,16 +6705,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F6D0E4-1A53-469F-8F82-37EAC46110A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F996CDD9-BFB6-4350-AB39-825A5175A3B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6722,12 +6730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F6D0E4-1A53-469F-8F82-37EAC46110A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>